--- a/data/house_price/Inflation/inflation source.xlsx
+++ b/data/house_price/Inflation/inflation source.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoebarrett/Documents/GitHub/part-a/data/house_price/Inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD681F68-692A-E940-9329-03DCFD81EF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5F3255-115E-8C49-B730-178565273486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B0798E11-20A9-124A-8D5D-4DA90E5233C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Dollar inflation: 2010-2020</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>https://www.in2013dollars.com/us/inflation/2010</t>
+  </si>
+  <si>
+    <t>Inflation compared to 2020</t>
   </si>
 </sst>
 </file>
@@ -113,11 +116,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,212 +435,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C4455C-273D-1145-BDA0-6EC421118B04}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2010</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3:C13)</f>
         <v>0.192</v>
       </c>
-      <c r="E3" s="1">
-        <f>(B3*C17)+B3</f>
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <f>(B3*D3)+B3</f>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="5">
+        <v>103.16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="5">
+        <v>105.29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D5">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="5">
+        <v>106.83</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.46E-2</v>
+      </c>
+      <c r="D6">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="5">
+        <v>108.57</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5">
+        <v>108.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="5">
+        <v>110.07</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="5">
+        <v>112.41</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="5">
+        <v>115.21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="5">
+        <v>117.24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="5">
         <v>119.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="6">
-        <v>103.16</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D13" si="0">SUM(C4:C14)</f>
-        <v>0.17560000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="6">
-        <v>105.29</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2.07E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="6">
-        <v>106.83</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.46E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12329999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="6">
-        <v>108.57</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10869999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="6">
-        <v>108.7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="6">
-        <v>110.07</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1.26E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1299999999999992E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="6">
-        <v>112.41</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8699999999999992E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="6">
-        <v>115.21</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7399999999999993E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="6">
-        <v>117.24</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="6">
-        <v>119.2</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1.49E-2</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
